--- a/tool/ExportExcelToXml/res/bbb.xlsx
+++ b/tool/ExportExcelToXml/res/bbb.xlsx
@@ -8,19 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,7 +60,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bbb</t>
+    <t>required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试int数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,2,2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_repeated_int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_repeated_float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试float数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0,1.0,1.0,1.0,1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0,2.0,2.0,2.0,2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_repeated_string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试str数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaaa,bbbb,cccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cccc,bbbb,aaaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>required_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResTest1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,8 +176,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -413,111 +482,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
+      <c r="D6" s="1">
         <v>2222222.55553</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>